--- a/éléments de construction/spécification.xlsx
+++ b/éléments de construction/spécification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="64320" yWindow="-940" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="montage financier" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="domoti" sheetId="4" r:id="rId4"/>
     <sheet name="contacts" sheetId="5" r:id="rId5"/>
     <sheet name="Géothermie" sheetId="6" r:id="rId6"/>
+    <sheet name="Feuil1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t xml:space="preserve">Hypothèque  </t>
   </si>
@@ -279,6 +280,15 @@
   </si>
   <si>
     <t>https://maisonsaine.ca/wp-content/uploads/hydronique.pdf</t>
+  </si>
+  <si>
+    <t>cuisine</t>
+  </si>
+  <si>
+    <t>Ikea</t>
+  </si>
+  <si>
+    <t>10% par trance de 1000$ à partir du mois du 7 mars 2016 au 18 avril 2016</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1475,4 +1485,37 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/éléments de construction/spécification.xlsx
+++ b/éléments de construction/spécification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="64320" yWindow="-940" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="montage financier" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="domoti" sheetId="4" r:id="rId4"/>
     <sheet name="contacts" sheetId="5" r:id="rId5"/>
     <sheet name="Géothermie" sheetId="6" r:id="rId6"/>
-    <sheet name="Feuil1" sheetId="7" r:id="rId7"/>
+    <sheet name="cuisine" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t xml:space="preserve">Hypothèque  </t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>10% par trance de 1000$ à partir du mois du 7 mars 2016 au 18 avril 2016</t>
+  </si>
+  <si>
+    <t>http://www.ecohabitation.com/actualite/nouvelles/comprendre-geothermie</t>
+  </si>
+  <si>
+    <t>pcp - puits à colonne permanente</t>
   </si>
 </sst>
 </file>
@@ -1451,27 +1457,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1491,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/éléments de construction/spécification.xlsx
+++ b/éléments de construction/spécification.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernard/153/éléments de construction/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="montage financier" sheetId="1" r:id="rId1"/>
     <sheet name="question" sheetId="2" r:id="rId2"/>
     <sheet name="spécification" sheetId="3" r:id="rId3"/>
     <sheet name="domoti" sheetId="4" r:id="rId4"/>
-    <sheet name="contacts" sheetId="5" r:id="rId5"/>
-    <sheet name="Géothermie" sheetId="6" r:id="rId6"/>
-    <sheet name="cuisine" sheetId="7" r:id="rId7"/>
+    <sheet name="extérieur" sheetId="12" r:id="rId5"/>
+    <sheet name="contacts" sheetId="5" r:id="rId6"/>
+    <sheet name="Géothermie" sheetId="6" r:id="rId7"/>
+    <sheet name="cuisine" sheetId="7" r:id="rId8"/>
+    <sheet name="plancher" sheetId="8" r:id="rId9"/>
+    <sheet name="quai" sheetId="9" r:id="rId10"/>
+    <sheet name="bbq" sheetId="10" r:id="rId11"/>
+    <sheet name="outils" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="145">
   <si>
     <t xml:space="preserve">Hypothèque  </t>
   </si>
@@ -295,6 +308,171 @@
   </si>
   <si>
     <t>pcp - puits à colonne permanente</t>
+  </si>
+  <si>
+    <t>http://www.marchersurlart.com</t>
+  </si>
+  <si>
+    <t>https://www.plancherradiant.com</t>
+  </si>
+  <si>
+    <t>Plancher chauffant et chauffe eau  econobec</t>
+  </si>
+  <si>
+    <t>honeywell redlink pour le chauffage TH9421 R</t>
+  </si>
+  <si>
+    <t>12w/pi2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plancher chauffant  </t>
+  </si>
+  <si>
+    <t>http://www.ecohabitation.com/guide/fiches/installer-systeme-photovoltaique-chez-soi-etape-1-dimensionnement</t>
+  </si>
+  <si>
+    <t>http://www.homerenergy.com/HOMER_legacy.html</t>
+  </si>
+  <si>
+    <t>celsiair.com(momenyo)</t>
+  </si>
+  <si>
+    <t>thermopompe il faut avec la technologie inverter</t>
+  </si>
+  <si>
+    <t>Voici un extrait de ce règlement, section II, occupation du domaine hydrique par des ouvrages mineurs :</t>
+  </si>
+  <si>
+    <t>« 2. Le propriétaire d'un terrain riverain adjacent au domaine hydrique ou une autre personne avec</t>
+  </si>
+  <si>
+    <t>l'autorisation de ce dernier peut, sans l'autorisation du ministre, occuper gratuitement la partie du</t>
+  </si>
+  <si>
+    <t>domaine hydrique en front de sa propriété pour y installer une plate-forme, soit flottante avec</t>
+  </si>
+  <si>
+    <t>ancrage amovible soit sur pilotis, ou un abri à bateau sur pilotis, pourvu que sa superficie</t>
+  </si>
+  <si>
+    <t>n'excède pas 20 m2 et qu'il n'occupe pas plus de 1/10 de la largeur du lit du cours d'eau à cet</t>
+  </si>
+  <si>
+    <t>endroit. »</t>
+  </si>
+  <si>
+    <t>« Quai : tout assemblage ordonné de matériaux construit sur pilotis, sur pieux ou au moyen de platesformes</t>
+  </si>
+  <si>
+    <t>flottantes, mis en place sur le littoral et la rive, et servant à amarrer une embarcation nautique</t>
+  </si>
+  <si>
+    <t>et/ou à donner accès au plan d’eau et/ou à se déplacer sur ce dernier. »</t>
+  </si>
+  <si>
+    <t>(Extrait de l’annexe A du règlement de zonage 2010-012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4  Le règlement et les lois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aucun article du présent règlement ne peut avoir pour effet de soustraire toute personne à l'application d'une loi du Canada ou du Québec. </t>
+  </si>
+  <si>
+    <t>http://www.mrcmemphremagog.com/download/Reglements/Reglement_de_controle_interimaire_12-15.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.publicationsduquebec.gouv.qc.ca/dynamicSearch/telecharge.php?type=3&amp;file=/R_13/R13R1.htm</t>
+  </si>
+  <si>
+    <t>Définition : Côté d'un terrain longeant la voie publique ou un plan d'eau.</t>
+  </si>
+  <si>
+    <t>Notes linguistiques – 1. Autres emplois relevés : front du lot, longueur de front, longueur en front, ligne de façade ou longueur de façade. Dans le cas des deux derniers termes, façade désigne tantôt le front, tantôt la face antérieure d'une construction.</t>
+  </si>
+  <si>
+    <t>http://www.justice.gouv.qc.ca/francais/publications/generale/termes/front.htm</t>
+  </si>
+  <si>
+    <t>Barbeque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On paie les taxes sur un droit de vue </t>
+  </si>
+  <si>
+    <t>thermopompe multi-split inverter</t>
+  </si>
+  <si>
+    <t>http://www.trucconstruction.com/ventilation-chauffage.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cout </t>
+  </si>
+  <si>
+    <t>Charles Labrie</t>
+  </si>
+  <si>
+    <t>Technologue en génie civil</t>
+  </si>
+  <si>
+    <t>Construction Labrie Merlos Inc.</t>
+  </si>
+  <si>
+    <t>3715, rue De l'Illinois, Sherbrooke, QC, J1N 0K1</t>
+  </si>
+  <si>
+    <t>Courriel: labriemerlos@videotron.ca</t>
+  </si>
+  <si>
+    <t>Portable: 819-678-2580</t>
+  </si>
+  <si>
+    <t>Télécopie: 819-569-2740</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tSJR5dDOo5U</t>
+  </si>
+  <si>
+    <t>Couteau à gypse</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-us/HT204903</t>
+  </si>
+  <si>
+    <t>Accessoire fonctinnant avec HomeKIt</t>
+  </si>
+  <si>
+    <t>http://david.gregoire.us/comment-remplacer-2-thermostats-par-un-seul-nest-et-comment-brancher-nest-avec-des-plinthes-electriques</t>
+  </si>
+  <si>
+    <t>Thermostat Remotec ZTS-110  - CT100  - Homematic</t>
+  </si>
+  <si>
+    <t>relais http://www.smarthome.com/elk-912b-relay-module-12-24-volt.html</t>
+  </si>
+  <si>
+    <t>evohome</t>
+  </si>
+  <si>
+    <t>Maconnex</t>
+  </si>
+  <si>
+    <t>stelpro</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Comfort </t>
+  </si>
+  <si>
+    <t>warmlyyours</t>
+  </si>
+  <si>
+    <t>plombier Germain Parenteau  819 821-0932 (cell), 819 565-4887 (maison)</t>
+  </si>
+  <si>
+    <t>promo ikea du 4 jiuillet au 8 aout carte de 100$ pour chaque achat de 1000$</t>
   </si>
 </sst>
 </file>
@@ -304,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -335,6 +513,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial,Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -353,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -395,8 +589,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -406,13 +608,23 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="40"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="49">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -452,11 +664,24 @@
     <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -788,7 +1013,7 @@
       <selection activeCell="G14" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="3" width="6" customWidth="1"/>
@@ -800,16 +1025,16 @@
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -820,7 +1045,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -835,7 +1060,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -850,7 +1075,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -865,7 +1090,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -873,7 +1098,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -882,26 +1107,26 @@
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -910,7 +1135,7 @@
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -922,7 +1147,7 @@
       <c r="G11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -934,7 +1159,7 @@
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -958,7 +1183,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -977,7 +1202,7 @@
         <v>114999.66666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -996,7 +1221,7 @@
         <v>114999.33277777779</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1015,7 +1240,7 @@
         <v>114998.99833240741</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1043,11 +1268,170 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1059,43 +1443,38 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1103,53 +1482,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1157,7 +1536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1165,77 +1544,72 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -1243,280 +1617,377 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="B30" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="B34" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>51</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>89</v>
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1524,12 +1995,90 @@
         <v>87</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>